--- a/sample/SPDXRdfExample-v2.3.xlsx
+++ b/sample/SPDXRdfExample-v2.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakao/workspace/osa/onot/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA14A71-2EE9-984F-B021-CCCC4646B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57A132D-8F17-8143-A8E4-318974764EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29920" yWindow="2940" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="230">
   <si>
     <t>Spreadsheet Version</t>
   </si>
@@ -830,6 +830,10 @@
   </si>
   <si>
     <t>LGPL-2.0-only AND LicenseRef-3 AND GPL-2.0-or-later WITH Bison-exception-2.2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceDownloadUrl: http://example.com</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1296,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1415,6 +1419,11 @@
     <row r="4" spans="1:14">
       <c r="K4" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18">
+      <c r="K5" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
